--- a/dados/cobertura_movel_2G2.xlsx
+++ b/dados/cobertura_movel_2G2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anatel365-my.sharepoint.com/personal/sergio_macedo_anatel_gov_br/Documents/Python/trabalho_final_enap/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Anatel\Python\trabalho_final_enap\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108BB835-AD3A-4437-BFD1-98ABC0812328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{108BB835-AD3A-4437-BFD1-98ABC0812328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42459C85-69F0-408C-AFFB-B327D8D55A64}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5461F0F0-50D1-4B25-AEFB-941600EF3E79}"/>
   </bookViews>
@@ -33,40 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
-  <si>
-    <t>Código IBGE</t>
-  </si>
-  <si>
-    <t>Município</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>Operadora</t>
-  </si>
-  <si>
-    <t>Tecnologia</t>
-  </si>
-  <si>
-    <t>% área coberta</t>
-  </si>
-  <si>
-    <t>% moradores cobertos</t>
-  </si>
-  <si>
-    <t>% domicílios cobertos</t>
-  </si>
-  <si>
-    <t>Área km2</t>
-  </si>
-  <si>
-    <t>Moradores</t>
-  </si>
-  <si>
-    <t>Domicílios</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>1600238</t>
   </si>
@@ -559,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79719319-6BDA-4904-BE04-67474983BFF6}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,40 +550,40 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -628,30 +595,30 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -663,223 +630,188 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>13.1074</v>
+      </c>
+      <c r="H4" s="1">
+        <v>14.6715</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>47.851300000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>49.2956</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>13.1074</v>
-      </c>
-      <c r="H5" s="1">
-        <v>14.6715</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.1099</v>
+      </c>
+      <c r="G6" s="1">
+        <v>55.832900000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>59.060400000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>47.851300000000002</v>
-      </c>
-      <c r="H6" s="1">
-        <v>49.2956</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1099</v>
+        <v>0.1113</v>
       </c>
       <c r="G7" s="1">
-        <v>55.832900000000002</v>
+        <v>46.610500000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>59.060400000000001</v>
+        <v>44.734699999999997</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>46.962600000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>52.517099999999999</v>
+      </c>
+      <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.1113</v>
-      </c>
-      <c r="G8" s="1">
-        <v>46.610500000000002</v>
-      </c>
-      <c r="H8" s="1">
-        <v>44.734699999999997</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.13250000000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>46.962600000000002</v>
-      </c>
-      <c r="H9" s="1">
-        <v>52.517099999999999</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -888,6 +820,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001CB3C1796D47764CA8CDA36937183BA1" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="20244858c392b58cfdb3196a20b5c6a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4cdb632b-f9fb-4aa3-af21-1a7c4dd46be0" xmlns:ns4="5bf44c01-c070-4697-ba62-0965a65d15dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8c5f127c562b330be0d360cae1ade90" ns3:_="" ns4:_="">
     <xsd:import namespace="4cdb632b-f9fb-4aa3-af21-1a7c4dd46be0"/>
@@ -1104,22 +1051,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BA4FF00-E6B5-4602-93A9-14A151CABD50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1085C2F-6928-4CF3-A1A9-EBF2887A1F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD54BAE-799D-4DCC-B069-839F871B9BFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1136,21 +1085,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1085C2F-6928-4CF3-A1A9-EBF2887A1F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BA4FF00-E6B5-4602-93A9-14A151CABD50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>